--- a/Holcene Revision Work/EDML LC/EDML-GICC Errors/EDML_GICC_Compare.xlsx
+++ b/Holcene Revision Work/EDML LC/EDML-GICC Errors/EDML_GICC_Compare.xlsx
@@ -1,37 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnmackay/Documents/GitHub/BICC/Holcene Revision Work/EDML LC/EDML-GICC Errors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42242E-0557-1B48-AFB3-A447DE77D54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="29660" yWindow="2800" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>EDML (m)</t>
+  </si>
+  <si>
+    <t>EDML age (yr BP1950)</t>
+  </si>
+  <si>
+    <t>NGRIP (m)</t>
+  </si>
+  <si>
+    <t>NGRIP age (yr BP1950)</t>
+  </si>
+  <si>
+    <t>difference (yr)</t>
+  </si>
+  <si>
+    <t>section error (EDML-NGRIP) yr</t>
+  </si>
+  <si>
+    <t>half layers in section</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +79,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,333 +403,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>EDML (m)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>EDML age (yr BP1950)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GICC age (yr BP1950)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>difference (yr)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>section error (yr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>117.71</v>
       </c>
-      <c r="B2" t="n">
-        <v>1274.090909090909</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1270.090909090909</v>
+      </c>
+      <c r="C2">
+        <v>265.32</v>
+      </c>
+      <c r="D2">
         <v>1268</v>
       </c>
-      <c r="D2" t="n">
-        <v>6.090909090909008</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.090909090909008</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2">
+        <v>2.0909090909090078</v>
+      </c>
+      <c r="F2">
+        <v>2.0909090909090078</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>125.25</v>
       </c>
-      <c r="B3" t="n">
-        <v>1381.781609195402</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>1376.2816091954021</v>
+      </c>
+      <c r="C3">
+        <v>284.20999999999998</v>
+      </c>
+      <c r="D3">
         <v>1375</v>
       </c>
-      <c r="D3" t="n">
-        <v>6.781609195402325</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6907001044933168</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3">
+        <v>1.281609195402325</v>
+      </c>
+      <c r="F3">
+        <v>-0.80929989550668324</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>127.65</v>
       </c>
-      <c r="B4" t="n">
-        <v>1416.563636363636</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>1411.454545454545</v>
+      </c>
+      <c r="C4">
+        <v>290.20999999999998</v>
+      </c>
+      <c r="D4">
         <v>1409</v>
       </c>
-      <c r="D4" t="n">
-        <v>7.563636363636306</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7820271682339808</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>143.58</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1651.663366336634</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="E4">
+        <v>2.4545454545454959</v>
+      </c>
+      <c r="F4">
+        <v>1.1729362591431709</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>143.58000000000001</v>
+      </c>
+      <c r="B5">
+        <v>1636.663366336634</v>
+      </c>
+      <c r="C5">
+        <v>331.21</v>
+      </c>
+      <c r="D5">
         <v>1644</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.663366336633771</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.09972997299746567</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E5">
+        <v>-7.3366336633662286</v>
+      </c>
+      <c r="F5">
+        <v>-9.7911791179117245</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>146.15</v>
       </c>
-      <c r="B6" t="n">
-        <v>1689.396226415095</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>1672.396226415095</v>
+      </c>
+      <c r="C6">
+        <v>337.42</v>
+      </c>
+      <c r="D6">
         <v>1681</v>
       </c>
-      <c r="D6" t="n">
-        <v>8.396226415094588</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.732860078460817</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>148.27</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1719.015625</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="E6">
+        <v>-8.6037735849054116</v>
+      </c>
+      <c r="F6">
+        <v>-1.267139921539183</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>148.27000000000001</v>
+      </c>
+      <c r="B7">
+        <v>1702.015625</v>
+      </c>
+      <c r="C7">
+        <v>342.27</v>
+      </c>
+      <c r="D7">
         <v>1709.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>9.515625</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>-7.484375</v>
+      </c>
+      <c r="F7">
         <v>1.119398584905412</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>152.87</v>
       </c>
-      <c r="B8" t="n">
-        <v>1786.159090909091</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>1765.159090909091</v>
+      </c>
+      <c r="C8">
+        <v>353.26</v>
+      </c>
+      <c r="D8">
         <v>1777</v>
       </c>
-      <c r="D8" t="n">
-        <v>9.159090909090992</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.3565340909090082</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E8">
+        <v>-11.84090909090901</v>
+      </c>
+      <c r="F8">
+        <v>-4.3565340909090082</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>173.84</v>
       </c>
-      <c r="B9" t="n">
-        <v>2100.276923076923</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>2076.7769230769231</v>
+      </c>
+      <c r="C9">
+        <v>406.79</v>
+      </c>
+      <c r="D9">
         <v>2088</v>
       </c>
-      <c r="D9" t="n">
-        <v>12.27692307692314</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.117832167832148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E9">
+        <v>-11.22307692307686</v>
+      </c>
+      <c r="F9">
+        <v>0.61783216783214812</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>175.32</v>
       </c>
-      <c r="B10" t="n">
-        <v>2124.0875</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>2100.0875000000001</v>
+      </c>
+      <c r="C10">
+        <v>410.73</v>
+      </c>
+      <c r="D10">
         <v>2113</v>
       </c>
-      <c r="D10" t="n">
-        <v>11.08750000000009</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.189423076923049</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="E10">
+        <v>-12.912499999999911</v>
+      </c>
+      <c r="F10">
+        <v>-1.6894230769230489</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>192.75</v>
       </c>
-      <c r="B11" t="n">
-        <v>2382.765957446808</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>2355.765957446808</v>
+      </c>
+      <c r="C11">
+        <v>453</v>
+      </c>
+      <c r="D11">
         <v>2372.099999999999</v>
       </c>
-      <c r="D11" t="n">
-        <v>10.66595744680944</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.4215425531906476</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="E11">
+        <v>-16.33404255319056</v>
+      </c>
+      <c r="F11">
+        <v>-3.421542553190648</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>202.87</v>
       </c>
-      <c r="B12" t="n">
-        <v>2532.5</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>2511.5</v>
+      </c>
+      <c r="C12">
+        <v>476.48</v>
+      </c>
+      <c r="D12">
         <v>2519</v>
       </c>
-      <c r="D12" t="n">
-        <v>13.50000000000045</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.834042553191011</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="E12">
+        <v>-7.4999999999995453</v>
+      </c>
+      <c r="F12">
+        <v>8.8340425531910114</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>204.91</v>
       </c>
-      <c r="B13" t="n">
-        <v>2566.012195121951</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>2545.5121951219512</v>
+      </c>
+      <c r="C13">
+        <v>481.98</v>
+      </c>
+      <c r="D13">
         <v>2553.6</v>
       </c>
-      <c r="D13" t="n">
-        <v>12.4121951219513</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1.087804878049155</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="E13">
+        <v>-8.0878048780487006</v>
+      </c>
+      <c r="F13">
+        <v>-0.58780487804915538</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>212.09</v>
       </c>
-      <c r="B14" t="n">
-        <v>2680.344262295082</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>2663.344262295082</v>
+      </c>
+      <c r="C14">
+        <v>500.31</v>
+      </c>
+      <c r="D14">
         <v>2669</v>
       </c>
-      <c r="D14" t="n">
-        <v>11.34426229508199</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1.06793282686931</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="E14">
+        <v>-5.6557377049180104</v>
+      </c>
+      <c r="F14">
+        <v>2.4320671731306902</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>240.7</v>
       </c>
-      <c r="B15" t="n">
-        <v>3132.21052631579</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3118.699999999997</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.51052631579296</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.166264020710969</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B15">
+        <v>3127.1568627450979</v>
+      </c>
+      <c r="C15">
+        <v>570.73</v>
+      </c>
+      <c r="D15">
+        <v>3118.6999999999971</v>
+      </c>
+      <c r="E15">
+        <v>8.4568627451012617</v>
+      </c>
+      <c r="F15">
+        <v>14.11260045001927</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>256.45</v>
       </c>
-      <c r="B16" t="n">
-        <v>3381.635294117647</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>3377.1352941176469</v>
+      </c>
+      <c r="C16">
+        <v>609.52</v>
+      </c>
+      <c r="D16">
         <v>3370.299999999997</v>
       </c>
-      <c r="D16" t="n">
-        <v>11.33529411764994</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-2.175232198143021</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>270.72</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3589.49090909091</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="E16">
+        <v>6.8352941176499371</v>
+      </c>
+      <c r="F16">
+        <v>-1.621568627451325</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="B17">
+        <v>3592.49090909091</v>
+      </c>
+      <c r="C17">
+        <v>641.01</v>
+      </c>
+      <c r="D17">
         <v>3576.399999999996</v>
       </c>
-      <c r="D17" t="n">
-        <v>13.09090909091356</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.755614973263619</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="E17">
+        <v>16.090909090913559</v>
+      </c>
+      <c r="F17">
+        <v>9.2556149732636186</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>272.3</v>
       </c>
-      <c r="B18" t="n">
-        <v>3616.783333333334</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3602.200000000002</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14.58333333333167</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.49242424241811</v>
+      <c r="B18">
+        <v>3619.356060606061</v>
+      </c>
+      <c r="C18">
+        <v>644.87</v>
+      </c>
+      <c r="D18">
+        <v>3602.2000000000021</v>
+      </c>
+      <c r="E18">
+        <v>17.156060606058421</v>
+      </c>
+      <c r="F18">
+        <v>1.0651515151448621</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
